--- a/biology/Histoire de la zoologie et de la botanique/Patrick_Browne/Patrick_Browne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Patrick_Browne/Patrick_Browne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Browne est un médecin et un naturaliste irlandais, né vers 1720 dans le comté de Mayo en Irlande et mort le 29 août 1790 dans le même comté.
 Il fait des études de médecine à Paris et obtient son titre de docteur à Reims en 1742. Il poursuit un temps ses études à Leyde avant de commencer à pratiquer à l’hôpital St Thomas de Londres.
